--- a/medicine/Psychotrope/Knockdhu/Knockdhu.xlsx
+++ b/medicine/Psychotrope/Knockdhu/Knockdhu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Knockdhu est une distillerie de whisky située dans la région des Highlands.
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La distillerie fut fondée en 1893 par John Morrison. Peu de temps après avoir acheté les terrains au Duc de Fife, quelques sources d'eau furent découvertes sur le versant Sud du Knock Hill. La qualité de l'eau ayant été confirmée, la construction de la distillerie démarra immédiatement. Le site présentait également l'avantage de la proximité avec la gare de Knock, sur le Chemin de Fer d'Écosse du Nord, entre Aberdeen et Elgin.
 Les architectes Gordon &amp; Macbey d'Elgin firent édifier des bâtiments avec le granite local. L'électricité était fournie par une machine à vapeur de 16 CV et, à plein régime, les deux alambics pouvaient distiller 2 500 Gallons d'alcool par semaine
@@ -546,7 +560,9 @@
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Knockdhu en gaélique écossais signifie "La colline noire", anCnoc fait lui référence à la colline jouxtant la distillerie.
 </t>
@@ -577,7 +593,9 @@
           <t>Embouteillages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>anCnoc 12 ans 40 %
 anCnoc 16 ans 46 %
@@ -610,7 +628,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Whisky magazine no 25
 www.whisky-distilleries.info
